--- a/Factures_Excel/1779 - 9098-2885 Québec Inc..xlsx
+++ b/Factures_Excel/1779 - 9098-2885 Québec Inc..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F62692-C15B-4C02-BE82-D55CD221A5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20047130-91AC-495C-AFA0-A9CC96DF739E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="17-06-24" sheetId="4" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="2024-10-14 - 24-24525" sheetId="8" r:id="rId5"/>
     <sheet name="2024-11-16 - 24-24612" sheetId="9" r:id="rId6"/>
     <sheet name="2024-12-21 - 24-24682" sheetId="10" r:id="rId7"/>
+    <sheet name="2025-03-01 - 25-24745" sheetId="11" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -34,6 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2024-10-14 - 24-24525'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2024-11-16 - 24-24612'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'2024-12-21 - 24-24682'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'2025-03-01 - 25-24745'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'28-07-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Activités!$A$1:$D$48</definedName>
     <definedName name="Zone_impres_MI">#REF!</definedName>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="126">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -400,6 +402,39 @@
   </si>
   <si>
     <t xml:space="preserve"> - Fournir les différents documents demandés ;</t>
+  </si>
+  <si>
+    <t>Le 1 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24745</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Modifications à la documentation suite à la finalisation des états financiers ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Modifications au mémorandum fiscal suite aux divers ajustements ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous, le juriste, votre comptable et votre planificateur financier;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail relativement au transfert des actifs à la nouvelle société ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Révision des différentes version de la documentation juridique afférente à la présente réorganisation/transaction;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Discussions, analyses et réflexions relativement à l'optimisation de fin d'année ;</t>
+  </si>
+  <si>
+    <t>9518-0485 Québec Inc.</t>
+  </si>
+  <si>
+    <t>916 ch du Lac-de-L'achigan</t>
+  </si>
+  <si>
+    <t>Saint-Hyppolyte, Québec, J8A 2V7</t>
   </si>
 </sst>
 </file>
@@ -417,7 +452,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;$&quot;"/>
     <numFmt numFmtId="171" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -757,6 +792,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -988,7 +1032,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1403,6 +1447,21 @@
     <xf numFmtId="170" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1487,6 +1546,7 @@
     <xf numFmtId="0" fontId="49" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -1904,6 +1964,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7169" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E11A76-6637-D3DB-0735-AEE7E2977591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2671,14 +2797,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2699,275 +2825,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="172"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="172" t="s">
+      <c r="B34" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="172" t="s">
+      <c r="B36" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="172" t="s">
+      <c r="B38" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="172"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="172" t="s">
+      <c r="B42" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="172" t="s">
+      <c r="B44" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="172" t="s">
+      <c r="B46" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="172"/>
-      <c r="D46" s="172"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="172"/>
-      <c r="C47" s="172"/>
-      <c r="D47" s="172"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="172" t="s">
+      <c r="B48" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="172"/>
-      <c r="D48" s="172"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="177"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="172"/>
-      <c r="C49" s="172"/>
-      <c r="D49" s="172"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="172" t="s">
+      <c r="B50" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="172"/>
-      <c r="D50" s="172"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="172"/>
-      <c r="D51" s="172"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="172" t="s">
+      <c r="B52" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="172"/>
-      <c r="D52" s="172"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="172"/>
-      <c r="D53" s="172"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="172" t="s">
+      <c r="B54" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="172"/>
-      <c r="D54" s="172"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="172"/>
-      <c r="D55" s="172"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="172" t="s">
+      <c r="B56" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="172"/>
-      <c r="D56" s="172"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="177"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="172"/>
-      <c r="C57" s="172"/>
-      <c r="D57" s="172"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="172" t="s">
+      <c r="B58" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="172"/>
-      <c r="D58" s="172"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="172"/>
-      <c r="C59" s="172"/>
-      <c r="D59" s="172"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="172"/>
-      <c r="C60" s="172"/>
-      <c r="D60" s="172"/>
+      <c r="B60" s="177"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="172"/>
-      <c r="C61" s="172"/>
-      <c r="D61" s="172"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="172"/>
-      <c r="C62" s="172"/>
-      <c r="D62" s="172"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="172"/>
-      <c r="C63" s="172"/>
-      <c r="D63" s="172"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -2997,17 +3123,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="172"/>
-      <c r="C66" s="172"/>
-      <c r="D66" s="172"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="177"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="172"/>
-      <c r="D67" s="172"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="177"/>
+      <c r="D67" s="177"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -3114,19 +3240,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="174"/>
-      <c r="C76" s="174"/>
-      <c r="D76" s="174"/>
+      <c r="B76" s="179"/>
+      <c r="C76" s="179"/>
+      <c r="D76" s="179"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="179" t="s">
+      <c r="B77" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="179"/>
-      <c r="D77" s="179"/>
+      <c r="C77" s="184"/>
+      <c r="D77" s="184"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -3134,9 +3260,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="B78" s="179"/>
+      <c r="C78" s="179"/>
+      <c r="D78" s="179"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -3171,31 +3297,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="177"/>
-      <c r="C82" s="177"/>
-      <c r="D82" s="177"/>
-      <c r="E82" s="177"/>
+      <c r="B82" s="182"/>
+      <c r="C82" s="182"/>
+      <c r="D82" s="182"/>
+      <c r="E82" s="182"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="171" t="s">
+      <c r="A83" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="171"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
+      <c r="B83" s="176"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="176"/>
+      <c r="E83" s="176"/>
+      <c r="F83" s="176"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="180" t="s">
+      <c r="A84" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="180"/>
-      <c r="C84" s="180"/>
-      <c r="D84" s="180"/>
-      <c r="E84" s="180"/>
-      <c r="F84" s="180"/>
+      <c r="B84" s="185"/>
+      <c r="C84" s="185"/>
+      <c r="D84" s="185"/>
+      <c r="E84" s="185"/>
+      <c r="F84" s="185"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -3207,26 +3333,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="178"/>
-      <c r="C86" s="178"/>
-      <c r="D86" s="178"/>
-      <c r="E86" s="178"/>
+      <c r="B86" s="183"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="183"/>
+      <c r="E86" s="183"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="170" t="s">
+      <c r="A87" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="170"/>
-      <c r="C87" s="170"/>
-      <c r="D87" s="170"/>
-      <c r="E87" s="170"/>
-      <c r="F87" s="170"/>
+      <c r="B87" s="175"/>
+      <c r="C87" s="175"/>
+      <c r="D87" s="175"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="175"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="175"/>
-      <c r="C89" s="176"/>
-      <c r="D89" s="176"/>
+      <c r="B89" s="180"/>
+      <c r="C89" s="181"/>
+      <c r="D89" s="181"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3288,7 +3414,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3437,14 +3563,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3465,259 +3591,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="172"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="172" t="s">
+      <c r="B34" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="172" t="s">
+      <c r="B36" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="172" t="s">
+      <c r="B38" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="172"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="172" t="s">
+      <c r="B42" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="172"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="172"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="172"/>
-      <c r="C47" s="172"/>
-      <c r="D47" s="172"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="172"/>
-      <c r="C48" s="172"/>
-      <c r="D48" s="172"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="177"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="172"/>
-      <c r="C49" s="172"/>
-      <c r="D49" s="172"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="172"/>
-      <c r="C50" s="172"/>
-      <c r="D50" s="172"/>
+      <c r="B50" s="177"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="172"/>
-      <c r="D51" s="172"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="172"/>
-      <c r="D52" s="172"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="172"/>
-      <c r="D53" s="172"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="172"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="172"/>
-      <c r="D55" s="172"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="172"/>
-      <c r="C56" s="172"/>
-      <c r="D56" s="172"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="177"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="172"/>
-      <c r="C57" s="172"/>
-      <c r="D57" s="172"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="172"/>
-      <c r="C58" s="172"/>
-      <c r="D58" s="172"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="172"/>
-      <c r="C59" s="172"/>
-      <c r="D59" s="172"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="172"/>
-      <c r="C60" s="172"/>
-      <c r="D60" s="172"/>
+      <c r="B60" s="177"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="172"/>
-      <c r="C61" s="172"/>
-      <c r="D61" s="172"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="172"/>
-      <c r="C62" s="172"/>
-      <c r="D62" s="172"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="172"/>
-      <c r="C63" s="172"/>
-      <c r="D63" s="172"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -3747,17 +3873,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="172"/>
-      <c r="C66" s="172"/>
-      <c r="D66" s="172"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="177"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="172"/>
-      <c r="D67" s="172"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="177"/>
+      <c r="D67" s="177"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -3864,19 +3990,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="174"/>
-      <c r="C76" s="174"/>
-      <c r="D76" s="174"/>
+      <c r="B76" s="179"/>
+      <c r="C76" s="179"/>
+      <c r="D76" s="179"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="179" t="s">
+      <c r="B77" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="179"/>
-      <c r="D77" s="179"/>
+      <c r="C77" s="184"/>
+      <c r="D77" s="184"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -3884,9 +4010,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="B78" s="179"/>
+      <c r="C78" s="179"/>
+      <c r="D78" s="179"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -3921,31 +4047,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="177"/>
-      <c r="C82" s="177"/>
-      <c r="D82" s="177"/>
-      <c r="E82" s="177"/>
+      <c r="B82" s="182"/>
+      <c r="C82" s="182"/>
+      <c r="D82" s="182"/>
+      <c r="E82" s="182"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="171" t="s">
+      <c r="A83" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="171"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
+      <c r="B83" s="176"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="176"/>
+      <c r="E83" s="176"/>
+      <c r="F83" s="176"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="180" t="s">
+      <c r="A84" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="180"/>
-      <c r="C84" s="180"/>
-      <c r="D84" s="180"/>
-      <c r="E84" s="180"/>
-      <c r="F84" s="180"/>
+      <c r="B84" s="185"/>
+      <c r="C84" s="185"/>
+      <c r="D84" s="185"/>
+      <c r="E84" s="185"/>
+      <c r="F84" s="185"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -3957,26 +4083,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="178"/>
-      <c r="C86" s="178"/>
-      <c r="D86" s="178"/>
-      <c r="E86" s="178"/>
+      <c r="B86" s="183"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="183"/>
+      <c r="E86" s="183"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="170" t="s">
+      <c r="A87" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="170"/>
-      <c r="C87" s="170"/>
-      <c r="D87" s="170"/>
-      <c r="E87" s="170"/>
-      <c r="F87" s="170"/>
+      <c r="B87" s="175"/>
+      <c r="C87" s="175"/>
+      <c r="D87" s="175"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="175"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="175"/>
-      <c r="C89" s="176"/>
-      <c r="D89" s="176"/>
+      <c r="B89" s="180"/>
+      <c r="C89" s="181"/>
+      <c r="D89" s="181"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4037,7 +4163,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4064,10 +4190,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="181"/>
+      <c r="C1" s="186"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4432,7 +4558,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4700,13 +4826,13 @@
       <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
       <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5179,10 +5305,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="185" t="s">
+      <c r="B81" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="186"/>
+      <c r="C81" s="191"/>
       <c r="D81" s="126"/>
       <c r="E81" s="127">
         <v>10060.31</v>
@@ -5199,30 +5325,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="187"/>
-      <c r="C83" s="188"/>
-      <c r="D83" s="189"/>
-      <c r="E83" s="189"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="193"/>
+      <c r="D83" s="194"/>
+      <c r="E83" s="194"/>
       <c r="F83" s="131"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="190" t="s">
+      <c r="A84" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="190"/>
-      <c r="C84" s="190"/>
-      <c r="D84" s="191"/>
-      <c r="E84" s="191"/>
+      <c r="B84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="196"/>
+      <c r="E84" s="196"/>
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="192" t="s">
+      <c r="A85" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="192"/>
-      <c r="C85" s="192"/>
-      <c r="D85" s="193"/>
-      <c r="E85" s="193"/>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="198"/>
+      <c r="E85" s="198"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5242,21 +5368,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="170" t="s">
+      <c r="A88" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="170"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="170"/>
-      <c r="E88" s="170"/>
-      <c r="F88" s="170"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
-      <c r="B89" s="182"/>
-      <c r="C89" s="182"/>
-      <c r="D89" s="183"/>
-      <c r="E89" s="183"/>
+      <c r="B89" s="187"/>
+      <c r="C89" s="187"/>
+      <c r="D89" s="188"/>
+      <c r="E89" s="188"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -5550,13 +5676,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="195"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="195"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6067,10 +6193,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="185" t="s">
+      <c r="B81" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="186"/>
+      <c r="C81" s="191"/>
       <c r="D81" s="126"/>
       <c r="E81" s="127">
         <v>10865.14</v>
@@ -6087,30 +6213,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="187"/>
-      <c r="C83" s="188"/>
-      <c r="D83" s="188"/>
-      <c r="E83" s="188"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="193"/>
+      <c r="D83" s="193"/>
+      <c r="E83" s="193"/>
       <c r="F83" s="155"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="190" t="s">
+      <c r="A84" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="190"/>
-      <c r="C84" s="190"/>
-      <c r="D84" s="190"/>
-      <c r="E84" s="190"/>
+      <c r="B84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="195"/>
+      <c r="E84" s="195"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="192" t="s">
+      <c r="A85" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="192"/>
-      <c r="C85" s="192"/>
-      <c r="D85" s="192"/>
-      <c r="E85" s="192"/>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6130,14 +6256,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="194" t="s">
+      <c r="A88" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="194"/>
-      <c r="C88" s="194"/>
-      <c r="D88" s="194"/>
-      <c r="E88" s="194"/>
-      <c r="F88" s="194"/>
+      <c r="B88" s="199"/>
+      <c r="C88" s="199"/>
+      <c r="D88" s="199"/>
+      <c r="E88" s="199"/>
+      <c r="F88" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6423,13 +6549,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="195"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="195"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6938,10 +7064,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="196" t="s">
+      <c r="B81" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="197"/>
+      <c r="C81" s="202"/>
       <c r="D81" s="168"/>
       <c r="E81" s="169">
         <v>11756.19</v>
@@ -6958,30 +7084,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="187"/>
-      <c r="C83" s="188"/>
-      <c r="D83" s="188"/>
-      <c r="E83" s="188"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="193"/>
+      <c r="D83" s="193"/>
+      <c r="E83" s="193"/>
       <c r="F83" s="155"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="190" t="s">
+      <c r="A84" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="190"/>
-      <c r="C84" s="190"/>
-      <c r="D84" s="190"/>
-      <c r="E84" s="190"/>
+      <c r="B84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="195"/>
+      <c r="E84" s="195"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="192" t="s">
+      <c r="A85" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="192"/>
-      <c r="C85" s="192"/>
-      <c r="D85" s="192"/>
-      <c r="E85" s="192"/>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7001,14 +7127,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="194" t="s">
+      <c r="A88" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="194"/>
-      <c r="C88" s="194"/>
-      <c r="D88" s="194"/>
-      <c r="E88" s="194"/>
-      <c r="F88" s="194"/>
+      <c r="B88" s="199"/>
+      <c r="C88" s="199"/>
+      <c r="D88" s="199"/>
+      <c r="E88" s="199"/>
+      <c r="F88" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7033,7 +7159,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
@@ -7294,13 +7420,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="195"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="195"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7777,10 +7903,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="196" t="s">
+      <c r="B81" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="197"/>
+      <c r="C81" s="202"/>
       <c r="D81" s="168"/>
       <c r="E81" s="169">
         <v>7444.63</v>
@@ -7797,30 +7923,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="187"/>
-      <c r="C83" s="188"/>
-      <c r="D83" s="188"/>
-      <c r="E83" s="188"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="193"/>
+      <c r="D83" s="193"/>
+      <c r="E83" s="193"/>
       <c r="F83" s="155"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="190" t="s">
+      <c r="A84" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="190"/>
-      <c r="C84" s="190"/>
-      <c r="D84" s="190"/>
-      <c r="E84" s="190"/>
+      <c r="B84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="195"/>
+      <c r="E84" s="195"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="192" t="s">
+      <c r="A85" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="192"/>
-      <c r="C85" s="192"/>
-      <c r="D85" s="192"/>
-      <c r="E85" s="192"/>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7840,23 +7966,876 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="194" t="s">
+      <c r="A88" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="194"/>
-      <c r="C88" s="194"/>
-      <c r="D88" s="194"/>
-      <c r="E88" s="194"/>
-      <c r="F88" s="194"/>
+      <c r="B88" s="199"/>
+      <c r="C88" s="199"/>
+      <c r="D88" s="199"/>
+      <c r="E88" s="199"/>
+      <c r="F88" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AED116B-3A1B-41EF-A528-E743C0BEEF85}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="200"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="170"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="144"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="171"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="144"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="170"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="144"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="170"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="144"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="170"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="144"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="170"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="144"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="171"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="144"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="170"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="144"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="170"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="144"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="170"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="144"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="170"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="144"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="170"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="144"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="170"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="144"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="144"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="144"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="144"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="144"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="144"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="144"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="144"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="144"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="144"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="144"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="144"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="144"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="144"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="144"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="144"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="144"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="173"/>
+      <c r="D63" s="174"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="144"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="163" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="150">
+        <v>24.9</v>
+      </c>
+      <c r="D66" s="151">
+        <v>350</v>
+      </c>
+      <c r="E66" s="164"/>
+      <c r="F66" s="164"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="159"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="151"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="144"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="159"/>
+      <c r="C68" s="154"/>
+      <c r="D68" s="154"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <f>C66*D66</f>
+        <v>8715</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="167" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <f>E69</f>
+        <v>8715</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <f>E73*C74</f>
+        <v>435.75</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <f>E73*C75</f>
+        <v>869.32125000000008</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <f>E73+E74+E75</f>
+        <v>10020.071250000001</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="202"/>
+      <c r="D81" s="168"/>
+      <c r="E81" s="169">
+        <f>E77</f>
+        <v>10020.071250000001</v>
+      </c>
+      <c r="F81" s="61"/>
+      <c r="H81" s="203">
+        <f>E81</f>
+        <v>10020.071250000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="193"/>
+      <c r="D83" s="193"/>
+      <c r="E83" s="193"/>
+      <c r="F83" s="155"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="195" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="195"/>
+      <c r="E84" s="195"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="197" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="199"/>
+      <c r="C88" s="199"/>
+      <c r="D88" s="199"/>
+      <c r="E88" s="199"/>
+      <c r="F88" s="199"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
     <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Factures_Excel/1779 - 9098-2885 Québec Inc..xlsx
+++ b/Factures_Excel/1779 - 9098-2885 Québec Inc..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20047130-91AC-495C-AFA0-A9CC96DF739E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400753A5-B523-4930-AE52-69717ABBFEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="17-06-24" sheetId="4" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="2024-11-16 - 24-24612" sheetId="9" r:id="rId6"/>
     <sheet name="2024-12-21 - 24-24682" sheetId="10" r:id="rId7"/>
     <sheet name="2025-03-01 - 25-24745" sheetId="11" r:id="rId8"/>
+    <sheet name="2025-05-05 - 25-24923" sheetId="12" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -36,6 +37,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2024-11-16 - 24-24612'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'2024-12-21 - 24-24682'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2025-03-01 - 25-24745'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'2025-05-05 - 25-24923'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'28-07-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Activités!$A$1:$D$48</definedName>
     <definedName name="Zone_impres_MI">#REF!</definedName>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="133">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -435,6 +437,27 @@
   </si>
   <si>
     <t>Saint-Hyppolyte, Québec, J8A 2V7</t>
+  </si>
+  <si>
+    <t>Le 5 MAI 2025</t>
+  </si>
+  <si>
+    <t>916 ch. du Lac-de-l'Achigan</t>
+  </si>
+  <si>
+    <t>Saint-Hippolyte (Québec) J8A 2V7</t>
+  </si>
+  <si>
+    <t>25-24923</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Révision de la documentation juridique afférente à la présente mise en place;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse des états financiers et préparation de tableaux de détermination de prix de vente final ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Modifications au mémorandum fiscal ;</t>
   </si>
 </sst>
 </file>
@@ -802,7 +825,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +847,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1061,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1462,39 +1491,40 @@
     <xf numFmtId="170" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1546,7 +1576,9 @@
     <xf numFmtId="0" fontId="49" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -1992,6 +2024,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E11A76-6637-D3DB-0735-AEE7E2977591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8193" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E95B66-7EDD-1DBE-A792-124FD5EEF9E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2797,14 +2895,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2825,275 +2923,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="180"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="180"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="180"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="180"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="177" t="s">
+      <c r="B42" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="180"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
+      <c r="B45" s="180"/>
+      <c r="C45" s="180"/>
+      <c r="D45" s="180"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="180"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="180"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="177" t="s">
+      <c r="B48" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
+      <c r="C48" s="180"/>
+      <c r="D48" s="180"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="177"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="177"/>
+      <c r="B49" s="180"/>
+      <c r="C49" s="180"/>
+      <c r="D49" s="180"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="177" t="s">
+      <c r="B50" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="177"/>
-      <c r="D50" s="177"/>
+      <c r="C50" s="180"/>
+      <c r="D50" s="180"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="177"/>
+      <c r="B51" s="180"/>
+      <c r="C51" s="180"/>
+      <c r="D51" s="180"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="177"/>
-      <c r="D52" s="177"/>
+      <c r="C52" s="180"/>
+      <c r="D52" s="180"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="177"/>
+      <c r="B53" s="180"/>
+      <c r="C53" s="180"/>
+      <c r="D53" s="180"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="177" t="s">
+      <c r="B54" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="180"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
+      <c r="B55" s="180"/>
+      <c r="C55" s="180"/>
+      <c r="D55" s="180"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="177" t="s">
+      <c r="B56" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
+      <c r="C56" s="180"/>
+      <c r="D56" s="180"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
+      <c r="B57" s="180"/>
+      <c r="C57" s="180"/>
+      <c r="D57" s="180"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="177" t="s">
+      <c r="B58" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="177"/>
-      <c r="D58" s="177"/>
+      <c r="C58" s="180"/>
+      <c r="D58" s="180"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="177"/>
+      <c r="B59" s="180"/>
+      <c r="C59" s="180"/>
+      <c r="D59" s="180"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="177"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
+      <c r="B60" s="180"/>
+      <c r="C60" s="180"/>
+      <c r="D60" s="180"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
+      <c r="B61" s="180"/>
+      <c r="C61" s="180"/>
+      <c r="D61" s="180"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="177"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="177"/>
+      <c r="B62" s="180"/>
+      <c r="C62" s="180"/>
+      <c r="D62" s="180"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="177"/>
+      <c r="B63" s="180"/>
+      <c r="C63" s="180"/>
+      <c r="D63" s="180"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -3123,17 +3221,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="177"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="177"/>
+      <c r="B66" s="180"/>
+      <c r="C66" s="180"/>
+      <c r="D66" s="180"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="177"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="177"/>
+      <c r="B67" s="180"/>
+      <c r="C67" s="180"/>
+      <c r="D67" s="180"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -3240,19 +3338,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="179"/>
-      <c r="C76" s="179"/>
-      <c r="D76" s="179"/>
+      <c r="B76" s="184"/>
+      <c r="C76" s="184"/>
+      <c r="D76" s="184"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="184" t="s">
+      <c r="B77" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="184"/>
-      <c r="D77" s="184"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="181"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -3260,9 +3358,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="179"/>
-      <c r="C78" s="179"/>
-      <c r="D78" s="179"/>
+      <c r="B78" s="184"/>
+      <c r="C78" s="184"/>
+      <c r="D78" s="184"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -3297,31 +3395,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="182"/>
-      <c r="C82" s="182"/>
-      <c r="D82" s="182"/>
-      <c r="E82" s="182"/>
+      <c r="B82" s="178"/>
+      <c r="C82" s="178"/>
+      <c r="D82" s="178"/>
+      <c r="E82" s="178"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="176" t="s">
+      <c r="A83" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="176"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="176"/>
-      <c r="E83" s="176"/>
-      <c r="F83" s="176"/>
+      <c r="B83" s="186"/>
+      <c r="C83" s="186"/>
+      <c r="D83" s="186"/>
+      <c r="E83" s="186"/>
+      <c r="F83" s="186"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="185"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="185"/>
-      <c r="E84" s="185"/>
-      <c r="F84" s="185"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="182"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -3333,26 +3431,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="183"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="183"/>
-      <c r="E86" s="183"/>
+      <c r="B86" s="179"/>
+      <c r="C86" s="179"/>
+      <c r="D86" s="179"/>
+      <c r="E86" s="179"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="175" t="s">
+      <c r="A87" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
-      <c r="F87" s="175"/>
+      <c r="B87" s="185"/>
+      <c r="C87" s="185"/>
+      <c r="D87" s="185"/>
+      <c r="E87" s="185"/>
+      <c r="F87" s="185"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="180"/>
-      <c r="C89" s="181"/>
-      <c r="D89" s="181"/>
+      <c r="B89" s="176"/>
+      <c r="C89" s="177"/>
+      <c r="D89" s="177"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3362,6 +3460,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B82:E82"/>
     <mergeCell ref="B86:E86"/>
@@ -3378,33 +3503,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3414,7 +3512,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3563,14 +3661,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3591,259 +3689,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="180"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="180"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="180"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="180"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="177" t="s">
+      <c r="B42" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="177"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
+      <c r="B44" s="180"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="180"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
+      <c r="B45" s="180"/>
+      <c r="C45" s="180"/>
+      <c r="D45" s="180"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="180"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="180"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
+      <c r="B48" s="180"/>
+      <c r="C48" s="180"/>
+      <c r="D48" s="180"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="177"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="177"/>
+      <c r="B49" s="180"/>
+      <c r="C49" s="180"/>
+      <c r="D49" s="180"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="177"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="177"/>
+      <c r="B50" s="180"/>
+      <c r="C50" s="180"/>
+      <c r="D50" s="180"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="177"/>
+      <c r="B51" s="180"/>
+      <c r="C51" s="180"/>
+      <c r="D51" s="180"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="177"/>
+      <c r="B52" s="180"/>
+      <c r="C52" s="180"/>
+      <c r="D52" s="180"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="177"/>
+      <c r="B53" s="180"/>
+      <c r="C53" s="180"/>
+      <c r="D53" s="180"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
+      <c r="B54" s="180"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="180"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
+      <c r="B55" s="180"/>
+      <c r="C55" s="180"/>
+      <c r="D55" s="180"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="177"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
+      <c r="B56" s="180"/>
+      <c r="C56" s="180"/>
+      <c r="D56" s="180"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
+      <c r="B57" s="180"/>
+      <c r="C57" s="180"/>
+      <c r="D57" s="180"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="177"/>
-      <c r="C58" s="177"/>
-      <c r="D58" s="177"/>
+      <c r="B58" s="180"/>
+      <c r="C58" s="180"/>
+      <c r="D58" s="180"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="177"/>
+      <c r="B59" s="180"/>
+      <c r="C59" s="180"/>
+      <c r="D59" s="180"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="177"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
+      <c r="B60" s="180"/>
+      <c r="C60" s="180"/>
+      <c r="D60" s="180"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
+      <c r="B61" s="180"/>
+      <c r="C61" s="180"/>
+      <c r="D61" s="180"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="177"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="177"/>
+      <c r="B62" s="180"/>
+      <c r="C62" s="180"/>
+      <c r="D62" s="180"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="177"/>
+      <c r="B63" s="180"/>
+      <c r="C63" s="180"/>
+      <c r="D63" s="180"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -3873,17 +3971,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="177"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="177"/>
+      <c r="B66" s="180"/>
+      <c r="C66" s="180"/>
+      <c r="D66" s="180"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="177"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="177"/>
+      <c r="B67" s="180"/>
+      <c r="C67" s="180"/>
+      <c r="D67" s="180"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -3990,19 +4088,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="179"/>
-      <c r="C76" s="179"/>
-      <c r="D76" s="179"/>
+      <c r="B76" s="184"/>
+      <c r="C76" s="184"/>
+      <c r="D76" s="184"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="184" t="s">
+      <c r="B77" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="184"/>
-      <c r="D77" s="184"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="181"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -4010,9 +4108,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="179"/>
-      <c r="C78" s="179"/>
-      <c r="D78" s="179"/>
+      <c r="B78" s="184"/>
+      <c r="C78" s="184"/>
+      <c r="D78" s="184"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -4047,31 +4145,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="182"/>
-      <c r="C82" s="182"/>
-      <c r="D82" s="182"/>
-      <c r="E82" s="182"/>
+      <c r="B82" s="178"/>
+      <c r="C82" s="178"/>
+      <c r="D82" s="178"/>
+      <c r="E82" s="178"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="176" t="s">
+      <c r="A83" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="176"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="176"/>
-      <c r="E83" s="176"/>
-      <c r="F83" s="176"/>
+      <c r="B83" s="186"/>
+      <c r="C83" s="186"/>
+      <c r="D83" s="186"/>
+      <c r="E83" s="186"/>
+      <c r="F83" s="186"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="185"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="185"/>
-      <c r="E84" s="185"/>
-      <c r="F84" s="185"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="182"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -4083,26 +4181,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="183"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="183"/>
-      <c r="E86" s="183"/>
+      <c r="B86" s="179"/>
+      <c r="C86" s="179"/>
+      <c r="D86" s="179"/>
+      <c r="E86" s="179"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="175" t="s">
+      <c r="A87" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
-      <c r="F87" s="175"/>
+      <c r="B87" s="185"/>
+      <c r="C87" s="185"/>
+      <c r="D87" s="185"/>
+      <c r="E87" s="185"/>
+      <c r="F87" s="185"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="180"/>
-      <c r="C89" s="181"/>
-      <c r="D89" s="181"/>
+      <c r="B89" s="176"/>
+      <c r="C89" s="177"/>
+      <c r="D89" s="177"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4112,6 +4210,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -4124,37 +4253,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{D644AC94-7A8A-40B1-9C3D-F84C3CF2D93A}">
@@ -4163,7 +4261,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4190,10 +4288,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="186"/>
+      <c r="C1" s="187"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4558,7 +4656,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4826,13 +4924,13 @@
       <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="189" t="s">
+      <c r="A30" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="189"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
       <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5305,10 +5403,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="190" t="s">
+      <c r="B81" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="191"/>
+      <c r="C81" s="192"/>
       <c r="D81" s="126"/>
       <c r="E81" s="127">
         <v>10060.31</v>
@@ -5325,30 +5423,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="192"/>
-      <c r="C83" s="193"/>
-      <c r="D83" s="194"/>
-      <c r="E83" s="194"/>
+      <c r="B83" s="193"/>
+      <c r="C83" s="194"/>
+      <c r="D83" s="195"/>
+      <c r="E83" s="195"/>
       <c r="F83" s="131"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="195" t="s">
+      <c r="A84" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="195"/>
-      <c r="C84" s="195"/>
-      <c r="D84" s="196"/>
-      <c r="E84" s="196"/>
+      <c r="B84" s="196"/>
+      <c r="C84" s="196"/>
+      <c r="D84" s="197"/>
+      <c r="E84" s="197"/>
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="197" t="s">
+      <c r="A85" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="197"/>
-      <c r="C85" s="197"/>
-      <c r="D85" s="198"/>
-      <c r="E85" s="198"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="198"/>
+      <c r="D85" s="199"/>
+      <c r="E85" s="199"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5368,21 +5466,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="175" t="s">
+      <c r="A88" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="175"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="185"/>
+      <c r="D88" s="185"/>
+      <c r="E88" s="185"/>
+      <c r="F88" s="185"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
-      <c r="B89" s="187"/>
-      <c r="C89" s="187"/>
-      <c r="D89" s="188"/>
-      <c r="E89" s="188"/>
+      <c r="B89" s="188"/>
+      <c r="C89" s="188"/>
+      <c r="D89" s="189"/>
+      <c r="E89" s="189"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -5676,13 +5774,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="200" t="s">
+      <c r="A30" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="200"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6193,10 +6291,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="190" t="s">
+      <c r="B81" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="191"/>
+      <c r="C81" s="192"/>
       <c r="D81" s="126"/>
       <c r="E81" s="127">
         <v>10865.14</v>
@@ -6213,30 +6311,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="192"/>
-      <c r="C83" s="193"/>
-      <c r="D83" s="193"/>
-      <c r="E83" s="193"/>
+      <c r="B83" s="193"/>
+      <c r="C83" s="194"/>
+      <c r="D83" s="194"/>
+      <c r="E83" s="194"/>
       <c r="F83" s="155"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="195" t="s">
+      <c r="A84" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="195"/>
-      <c r="C84" s="195"/>
-      <c r="D84" s="195"/>
-      <c r="E84" s="195"/>
+      <c r="B84" s="196"/>
+      <c r="C84" s="196"/>
+      <c r="D84" s="196"/>
+      <c r="E84" s="196"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="197" t="s">
+      <c r="A85" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="197"/>
-      <c r="C85" s="197"/>
-      <c r="D85" s="197"/>
-      <c r="E85" s="197"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="198"/>
+      <c r="D85" s="198"/>
+      <c r="E85" s="198"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6256,14 +6354,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="199" t="s">
+      <c r="A88" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="199"/>
-      <c r="C88" s="199"/>
-      <c r="D88" s="199"/>
-      <c r="E88" s="199"/>
-      <c r="F88" s="199"/>
+      <c r="B88" s="200"/>
+      <c r="C88" s="200"/>
+      <c r="D88" s="200"/>
+      <c r="E88" s="200"/>
+      <c r="F88" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6549,13 +6647,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="200" t="s">
+      <c r="A30" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="200"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7064,10 +7162,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="201" t="s">
+      <c r="B81" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="202"/>
+      <c r="C81" s="203"/>
       <c r="D81" s="168"/>
       <c r="E81" s="169">
         <v>11756.19</v>
@@ -7084,30 +7182,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="192"/>
-      <c r="C83" s="193"/>
-      <c r="D83" s="193"/>
-      <c r="E83" s="193"/>
+      <c r="B83" s="193"/>
+      <c r="C83" s="194"/>
+      <c r="D83" s="194"/>
+      <c r="E83" s="194"/>
       <c r="F83" s="155"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="195" t="s">
+      <c r="A84" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="195"/>
-      <c r="C84" s="195"/>
-      <c r="D84" s="195"/>
-      <c r="E84" s="195"/>
+      <c r="B84" s="196"/>
+      <c r="C84" s="196"/>
+      <c r="D84" s="196"/>
+      <c r="E84" s="196"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="197" t="s">
+      <c r="A85" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="197"/>
-      <c r="C85" s="197"/>
-      <c r="D85" s="197"/>
-      <c r="E85" s="197"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="198"/>
+      <c r="D85" s="198"/>
+      <c r="E85" s="198"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7127,14 +7225,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="199" t="s">
+      <c r="A88" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="199"/>
-      <c r="C88" s="199"/>
-      <c r="D88" s="199"/>
-      <c r="E88" s="199"/>
-      <c r="F88" s="199"/>
+      <c r="B88" s="200"/>
+      <c r="C88" s="200"/>
+      <c r="D88" s="200"/>
+      <c r="E88" s="200"/>
+      <c r="F88" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7420,13 +7518,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="200" t="s">
+      <c r="A30" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="200"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7903,10 +8001,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="201" t="s">
+      <c r="B81" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="202"/>
+      <c r="C81" s="203"/>
       <c r="D81" s="168"/>
       <c r="E81" s="169">
         <v>7444.63</v>
@@ -7923,30 +8021,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="192"/>
-      <c r="C83" s="193"/>
-      <c r="D83" s="193"/>
-      <c r="E83" s="193"/>
+      <c r="B83" s="193"/>
+      <c r="C83" s="194"/>
+      <c r="D83" s="194"/>
+      <c r="E83" s="194"/>
       <c r="F83" s="155"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="195" t="s">
+      <c r="A84" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="195"/>
-      <c r="C84" s="195"/>
-      <c r="D84" s="195"/>
-      <c r="E84" s="195"/>
+      <c r="B84" s="196"/>
+      <c r="C84" s="196"/>
+      <c r="D84" s="196"/>
+      <c r="E84" s="196"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="197" t="s">
+      <c r="A85" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="197"/>
-      <c r="C85" s="197"/>
-      <c r="D85" s="197"/>
-      <c r="E85" s="197"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="198"/>
+      <c r="D85" s="198"/>
+      <c r="E85" s="198"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7966,14 +8064,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="199" t="s">
+      <c r="A88" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="199"/>
-      <c r="C88" s="199"/>
-      <c r="D88" s="199"/>
-      <c r="E88" s="199"/>
-      <c r="F88" s="199"/>
+      <c r="B88" s="200"/>
+      <c r="C88" s="200"/>
+      <c r="D88" s="200"/>
+      <c r="E88" s="200"/>
+      <c r="F88" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7998,7 +8096,7 @@
   </sheetPr>
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
@@ -8259,13 +8357,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="200" t="s">
+      <c r="A30" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="200"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8751,17 +8849,17 @@
     </row>
     <row r="81" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="201" t="s">
+      <c r="B81" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="202"/>
+      <c r="C81" s="203"/>
       <c r="D81" s="168"/>
       <c r="E81" s="169">
         <f>E77</f>
         <v>10020.071250000001</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="H81" s="203">
+      <c r="H81" s="175">
         <f>E81</f>
         <v>10020.071250000001</v>
       </c>
@@ -8776,30 +8874,30 @@
     </row>
     <row r="83" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="192"/>
-      <c r="C83" s="193"/>
-      <c r="D83" s="193"/>
-      <c r="E83" s="193"/>
+      <c r="B83" s="193"/>
+      <c r="C83" s="194"/>
+      <c r="D83" s="194"/>
+      <c r="E83" s="194"/>
       <c r="F83" s="155"/>
     </row>
     <row r="84" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="195" t="s">
+      <c r="A84" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="195"/>
-      <c r="C84" s="195"/>
-      <c r="D84" s="195"/>
-      <c r="E84" s="195"/>
+      <c r="B84" s="196"/>
+      <c r="C84" s="196"/>
+      <c r="D84" s="196"/>
+      <c r="E84" s="196"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="197" t="s">
+      <c r="A85" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="197"/>
-      <c r="C85" s="197"/>
-      <c r="D85" s="197"/>
-      <c r="E85" s="197"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="198"/>
+      <c r="D85" s="198"/>
+      <c r="E85" s="198"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8819,14 +8917,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="199" t="s">
+      <c r="A88" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="199"/>
-      <c r="C88" s="199"/>
-      <c r="D88" s="199"/>
-      <c r="E88" s="199"/>
-      <c r="F88" s="199"/>
+      <c r="B88" s="200"/>
+      <c r="C88" s="200"/>
+      <c r="D88" s="200"/>
+      <c r="E88" s="200"/>
+      <c r="F88" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8842,4 +8940,843 @@
   <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943FE33D-D1F3-43DF-AE6E-815247EC8119}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="201"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="156"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="157"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="156"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="156"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="156"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="156"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="157"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="156"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="143" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="156"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="156"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="156"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="160"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="163" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="150">
+        <v>12</v>
+      </c>
+      <c r="D66" s="151">
+        <v>385</v>
+      </c>
+      <c r="E66" s="164"/>
+      <c r="F66" s="164"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="159"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="151"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="144"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="154"/>
+      <c r="D68" s="154"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>4620</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="167" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>4620</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>231</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>460.85</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>5311.85</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="202" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="203"/>
+      <c r="D81" s="168"/>
+      <c r="E81" s="169">
+        <v>5311.85</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="193"/>
+      <c r="C83" s="194"/>
+      <c r="D83" s="194"/>
+      <c r="E83" s="194"/>
+      <c r="F83" s="155"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="196" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="196"/>
+      <c r="C84" s="196"/>
+      <c r="D84" s="196"/>
+      <c r="E84" s="196"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="198" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="198"/>
+      <c r="C85" s="198"/>
+      <c r="D85" s="198"/>
+      <c r="E85" s="198"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="200"/>
+      <c r="C88" s="200"/>
+      <c r="D88" s="200"/>
+      <c r="E88" s="200"/>
+      <c r="F88" s="200"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>